--- a/Cultures.xlsx
+++ b/Cultures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iprada\Documents\Paradox Interactive\Crusader Kings III\mod\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25C1573-ED5B-4243-9DEE-ADE0EC5B868B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FF1545-EBF2-41BF-8AE8-ADD2DA7C84A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10575" yWindow="4560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cultures" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -157,12 +157,6 @@
     <t>inherited_names_chances</t>
   </si>
   <si>
-    <t>Alrik</t>
-  </si>
-  <si>
-    <t>Alrika</t>
-  </si>
-  <si>
     <t>von</t>
   </si>
   <si>
@@ -298,12 +292,6 @@
     <t>koschian</t>
   </si>
   <si>
-    <t>Nebachot</t>
-  </si>
-  <si>
-    <t>nebachot</t>
-  </si>
-  <si>
     <t>Northmarchian</t>
   </si>
   <si>
@@ -352,16 +340,28 @@
     <t>trollish</t>
   </si>
   <si>
-    <t>186,54,182</t>
-  </si>
-  <si>
-    <t>tulamid</t>
-  </si>
-  <si>
-    <t>ethos_bellicose</t>
-  </si>
-  <si>
-    <t>tulamidya</t>
+    <t>Brinwulf,Illosos,Kemmerich,Thorn,Ucurian,Treuthwin,Bernhelm,Answin,Hal,Falkwin,Bertolf,Jariel,Fallerich,Lichterhold,Brandulf,Genzmer,Erlgrimm,Valpo,Rude,Aldec,Ulfried,Bärenhardt,Leuwart,Cordoran,Holdwin,Yuris,Leugold,Brin,Algrimm,Barnhelm,Gerwin,Uribert,Lodion,Helus,Denkhart,Rodebrecht,Seginhardt,Golambes,Aurentian,Luidor,Olruk,Vencello,Tsadan,Bodar,Kathay,Gerbald,Adhemar,Rondradan,Mevis,Orlan,Bogumil,Gerenhardt,Wolfszahn,Welf,Sumudir,Yesatan,Wolfhard,Ardo,Thalionmel,Karlaka,Rondragan,Wulfhard,Rondrian,Virinyan,Glockriawin,Tabur,Tybalt,Fredo,Pagol,Leuendan,Kordobar,Leomin,Silvan,Felan,Brindian,Cordovan,Treuherz,Alrik,Giselmar,Reynhart,Bernhartus,Udalfried,Rondrasil,Wolfhelm,Tedesco,Raulfried,Eboreus,Giselbert,Ingmar,Praiowin,Adrianus,Imladris,Greifentreu,Kelwyn,Halbert,Bibur,Carolan,Hilbert,Leberolf,Odilbert,Ugdalf,Perval,Wulf,Palinor,Ortwin,Wilbart,Shazar,Thorondir,Kautz,Konnar,Ehrenfried,Hernulf,Taburin,Rondrigan,Yalfried,Tilldan,Thordenin,Andalbert,Hesinwin,Marbert,Halgor,Gerion,Rondrarian,Quinian,Boronian,Nardes,Dexter,Faldrich,Rondrik,Greifwin,Tolak,Danos,Viburn,Jagor,Radulf,Hedegar,Hlûdewig,Corvan,Jaslinn,Edelbrecht,Remal,Eslam,Alarich,Alderan,Volkhard,Sibelian,Grimwart,Schelling,Praiomar,Wulfhelm,Hilberan,Haldan,Yalafried,Brander,Junkobald,Raulwin,Baldewin,Hernobert,Ugo,Nydam,Freybarth,Praiofist,Leoderich,Elgor,Noralec,Hilberian,Vyborn,Leuerich,Leobur,Tsamuel,Zornbrecht,Garfold,Hadamar,Sighelm,Helma,Adalbert,Felian,Prutz,Berathraban,Gertfried,Eidon,Florignum,Debrek,Greifwardt,Karlovatz,Rondger,Helmarius,Helon,Jellinor,Seraminor,Tsafried,Gelfert,Ludemar,Leobara,Forlopp,Jarlak,Anselm,Podewin,Siegeshart,Leomir,Pervalian,Firutin,Raulbrin,Fürchtewol,Seinhach,Corian,Jargold,Rohal,Praioberta,Greifdan,Raul,Timshal,Dankraul,Linnert,Greifbert,Barduron,Adran,Malmbert,Treutholdt,Reto,Rodebert,Leomar,Griffo,Selbhardt,Cuneman,Praiowulf,Argaen,Parinor,Wolfbart,Praiosmin,Geron,Korgrimm,Rhys,Sylvius,Voltan,Praiotin,Reoderich,Irian,Storko,Praiofold,Herdan,Emmeran,Sieggewiss,Firunjan,Custodus,Oldebor,Quendan,Kalman,Greifhelm,Kordan,Praiobur,Greifhold,Sequin,Waldemar,Beltram,Zordian,Bosper,Leodan,Bardomar,Wischbart,Tyrian,Kordast,Erlan,Gishelm,Wolfaran,Ingrimmian,Yendor,Bardo,Gisborn,Ulfwin,Peragar,Raulwart,Leupold,Drego,Rondrawin,Lucius,Odilon,Haltreu,Phexian,Anaxios,Tramir,Otwin,Avrok,Sighart,Hadrumir,Traviadan,Sigman,Gero,Praiowar,Garunth,Doranthe,Ilfried,Luceo,Grifwart,Leuwyn,Hagen,Werdomar,Alabrecht,Leugrimm,Gerwulf,Haduwulf,Geismar,Raulbrecht,Grefino,Gertrad,Ehrfried,Herbald,Gurvan,Vidan,Quanion,Ulfran,Howarth,Menzel,Allerich,Arngrimm,Nimmgalf,Gessmerich,Quesper,Ingrobold,Udalrich,Egilmar,Gneiserich,Cyberian,Praiodan,Udalbert Falkwin,Ugdalf,Yrsya,Korhilda,Yesatan,Edelgunde,Kalmira,Hildegard,Holdwin,Wulfhelm,Praiodane,Rhys Ingrimmian,Lutisane,Quinian,Alissa,Leobara,Arlgard,Gerion,Isora,Alrike Bellona,Bardomar,Sigman,Emmeran,Rondira,Iswinde,Cella,Jellinor Remal,Yalafried,Tsaberta,Linnert,Hal,Podewin,Treuthwin,Gurvan,Coris,Andalbert,Ulmgard,Sieggewiss,Grimmbrechta,Tanira,Halgor Hesinwin,Ehrfried,Helon,Ruffina,Wulf,Thuronia,Tybalt,Leuendan,Lichterhold,Praiowin,Irmenella,Debrek,Luceo Florignum,Utharia,Antara Irmegunde,Leuwart,Yalfried,Leomar,Wilmunde,Greifbert,Quisira,Jaslinn,Thargrîn,Leopolda,Leoderich,Thordenin,Escalia,Haduwulf,Eslamella,Praiomara,Aldare,Adelmunde Greifdane,Baldewin,Glockriawin,Aurentian,Carolan,Cordovan,Gunilda,Luidor,Rondriga,Quendan,Volkhard,Ucurian,Korgrimm,Leomir,Fürchtewol Grifwart,Greifhold,Rondradan,Leodan,Waldemar,Seraminor Wolfszahn,Wulfhard Praiofold,Ismelde Gyrlin,Tabur,Gerbald,Phexania,Rondrian,Rondrigunda,Rondriane,Selindiane Garafantreu,Storko,Irmhelde,Adran,Argaen,Lechdane,Grimwart,Freybarth,Thyria,Tsafried,Treuberta,Menzel,Nymphedora,Helmarius,Alwene,Selbhardt,Oldebor,Alderan,Ingmar,Selinde,Pagol Hilberian,Herdan Praiowin,Virinyan,Anselm Hilberan,Haugmine,Doranthe,Bernhelm,Tanit Rondriga,Corvan Wolfhard,Imina,Irian,Greifwin Treuherz,Wolfgard,Golambes,Avrok,Tilldan Greifentreu,Thorn,Taburin,Erlgard,Diethlind,Malmbert,Rodebert,Wilbart,Herdan Alrik,Karminia,Alabrecht,Ernbrechta,Voltan,Kathay Praiotin,Allerich,Reto,Rimiona,Halbert Brindian,Zordian Peragar,Custodus,Yuris,Peraga,Uribert Karlaka,Jargold Ortwin,Helus Praiodan,Zerline,Welf,Herdan Lucius,Leugold,Ismene,Leberolf,Arngrimm Leuerich,Grefino,Genzmer,Rondrasil,Maira,Odilbert Rondrasil,Rohal,Algrimm,Hlûdewig,Virinya,Eslamia,Ingrobold,Werdomar,Firunjan,Fredo,Elwene,Tsaburga,Raultraud,Debrek Rondrawin,Hernulf Answin,Fridega,Ehrenfried,Hilla Bernigandh,Darya,Nydam,Greifdane,Ardo,Walgunde Firunia,Barduron,Ugo,Treutholdt,Leuwyn,Imladris,Howarth,Boronian,Olruk,Tyrian Gelfert,Rondrawin,Junkobald,Gerwulf,Traviadan,Iralda,Otwin,Praiodan,Rudina,Kordast,Menzel Rodebrecht,Geismar,Geria,Duana,Fastrada,Amelthona Praiadne,Ulfried,Wolfbart,Leobur,Hadrumir,Silvan Leomar,Lechmin,Raulfried Haltreu,Simiane,Hagria Firuna,Vencello,Erlgrimm,Barnhelm,Anaxios Illosos,Sighelm,Karlovatz,Adhemar,Udalbert,Rude,Griselda Serapha,Gisborn,Udalfried,Sumudir,Sylvius,Noralec Praiowar,Brandulf,Jariel Praiotin,Alrike,Aldec Praiofold,Radulf,Rondrigan,Jagor,Leuthild,Faldrich,Gunilde,Cuneman,Khorena,Efferdane,Garfold,Timshal,Yadvige,Bertolf,Ondwina,Rahjalieb,Dexter,Corian,Ulfwin,Nimmgalf,Garunth,Haldan,Thalia,Rondirai,Selindra,Kordan,Gessmerich,Greifwardt,Greifhelm,Zehta Elenar,Brinwulf,Adalbert,Kalman Quesper,Berathraban,Jessa Tamira,Parinor,Adrianus,Agelie Anaverda,Viburn,Tsamuel,Gurvan Praiobur,Geron,Wolfaran,Bogumil,Ludine,Bärenhardt,Danos,Brander,Yalafriede,Herbald,Leupold,Hynthia,Gero,Perval,Lomena,Hadamar,Pervalian,Rondger,Marbert,Praiowulf,Leodane,Fallerich,Siegeshart,Dankraul,Forlopp,Geshla Alvinja,Palinor,Greifbertha,Wolfhelm,Selfina,Raulbrecht,Gerenhardt,Tsaiane,Elgor,Argande Tsalieb,Malevinde,Ailinde,Denkhart,Ludemar,Alrik,Kemmerich,Eydate,Giselmar,Alderan Tsadan,Gertfried,Felan Rondrik,Tolak,Gidiane,Tedesco,Giselbert,Gryphonia Praiosmin,Wilminde,Gerswind,Firnbrechta,Tramir Kelwyn,Nardes,Gertrad,Seginhardt,Leonora,Bibur,Zornbrecht,Raulbrin,Greifdan,Egilmar,Firutin,Yalagunde,Duridanya,Sequin,Wulfgirda,Bardo,Mara,Vidan,Konnar,Sighart,Gishelm Rondrawin,Rondragan,Bodar,Ardare,Ortwin Kautz,Leumine,Halbert,Eslam,Raulwin Aurentian,Wolfgerda,Hilbert,Thorondir Kordobar,Gero Leodan,Sibelian,Thalionmel,Calderine,Gerwin,Mevis,Treumunde,Reynhart,Answin,Bernhartus,Wallgrin,Elgor Leomar,Hernobert,Leugrimm,Irian Schelling,Jarlak,Alrik Raul,Ilfried Rondrarian,Selene Leodane,Dythlind,Erlan,Phexiane,Vyborn,Griffo,Mera,Myrialde,Leogunda,Faralda,Korisande,Eidon Wischbart,Rahjanda,Helma,Cordoran,Praiosmin,Ailyne,Ermegard,Valpo,Quanion</t>
+  </si>
+  <si>
+    <t>Leonora,Gyrlin,Hardane,Yadvige,Treumunde,Leopolda,Thalionmel,Tsaiane,Grimmbrechta,Firuna,Selindra,Virinya,Waltrude,Dythlind,Leumine,Antara,Elenar,Wilminde,Wallgrin,Diethlind,Khorena,Berdina,Duana,Thyria,Griselda,Wolfgerda,Selene,Korisande,Alrike,Selindiane,Utharia,Hynthia,Iralda,Rondirai,Irmenella,Rohaja,Eslamella,Thuronia,Maira,Praiodane,Eslamia,Praiomara,Rondriane,Lechmin,Escalia,Thalia,Tanira,Myrialde,Ismene,Amelthona,Calderine,Ailinde,Yalagunde,Lutisane,Praioberta,Hildegard,Rondrigunda,Rahjanda,Firunia,Ermegard,Walgunde,Isora,Raultraud,Yrsya,Imina,Hilla,Yalafriede,Irmhelde,Zehta,Argande,Simiane,Leuthild,Rudina,Nymphedora,Efferdane,Korhild,Lomena,Elea,Wilmunde,Geshla,Elwene,Iswinde,Ismelde,Ludine,Gunilde,Ernbrechta,Greifdane,Praiosmin,Selfina,Duridanya,Cella,Zerline,Ruffina,Anaverda,Mara,Algerte,Darya,Lechdane,Bellona,Leodane,Malevinde,Haugmine,Korhilda,Gidiane,Gunilda,Arlgard,Korgunde,Garafantreu,Fridega,Tsaberta,Yelinde,Hagria,Ondwina,Irmegunde,Rondriga,Rahjalieb,Tanit,Tsaburga,Praiadne,Peraga,Edelgunde,Coris,Selinde,Bernigandh,Faralda,Madalieb,Thargrîn,Wolfgard,Kalmira,Ayana,Ardare,Leogunda,Treuberta,Firnbrechta,Ailyne,Maline,Erlgard,Aldare,Greifbertha,Gerswind,Alwene,Alvinja,Quisira,Phexania,Tamira,Lysindra,Agelie,Rimiona,Fastrada,Phexiane,Serapha,Gryphonia,Wulfgirda,Adelmunde,Jessa,Josmine,Geria,Mera,Alissa,Tsalieb,Ulmgard,Rondira,Karminia,Eydate</t>
+  </si>
+  <si>
+    <t>Weidener</t>
+  </si>
+  <si>
+    <t>cult_weiden</t>
+  </si>
+  <si>
+    <t>196,112,0</t>
+  </si>
+  <si>
+    <t>tradition_pastorialists</t>
+  </si>
+  <si>
+    <t>tradition_family_business</t>
+  </si>
+  <si>
+    <t>tradition_hereditary_hierarchy</t>
   </si>
 </sst>
 </file>
@@ -397,8 +397,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,24 +785,24 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -825,24 +826,24 @@
         <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
         <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -866,24 +867,24 @@
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -907,24 +908,24 @@
         <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
         <v>91</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
@@ -948,33 +949,33 @@
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
@@ -989,33 +990,33 @@
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
@@ -1030,33 +1031,33 @@
         <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
-        <v>74</v>
-      </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -1071,33 +1072,33 @@
         <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
         <v>97</v>
-      </c>
-      <c r="E10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" t="s">
-        <v>101</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -1112,33 +1113,33 @@
         <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -1153,30 +1154,49 @@
         <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
         <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1186,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BE0E0B-F6A5-4410-A691-3E4257F95F2B}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,96 +1265,116 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
         <v>78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
         <v>77</v>
       </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1347,7 +1387,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,50 +1430,50 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1472,18 +1512,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1525,24 +1565,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
